--- a/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value2906.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value2906.xlsx
@@ -351,13 +351,13 @@
         <v>1.173515800498085</v>
       </c>
       <c r="B1">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="C1">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="D1">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="E1">
         <v>1.139132776626135</v>

--- a/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value2906.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value2906.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>1.173515800498085</v>
+        <v>1.478793263435364</v>
       </c>
       <c r="B1">
-        <v>15</v>
+        <v>1.898364901542664</v>
       </c>
       <c r="C1">
-        <v>15</v>
+        <v>2.849325180053711</v>
       </c>
       <c r="D1">
-        <v>15</v>
+        <v>5.278578758239746</v>
       </c>
       <c r="E1">
-        <v>1.139132776626135</v>
+        <v>1.123391270637512</v>
       </c>
     </row>
   </sheetData>
